--- a/Requsition of Mugdho Corporation/28.11.19 Requisition of Mughdo Corporation.xlsx
+++ b/Requsition of Mugdho Corporation/28.11.19 Requisition of Mughdo Corporation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\Requsition of Mugdho Corporation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0545CC66-495A-4AD6-8298-F7C5C82B8856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1388E291-1B0E-4E69-AF16-F040EDCEF2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="1425" windowWidth="8955" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$3:$E$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$3:$E$90</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>Model Name</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>28.11.19</t>
+  </si>
+  <si>
+    <t>b66</t>
+  </si>
+  <si>
+    <t>E95</t>
   </si>
 </sst>
 </file>
@@ -1057,13 +1063,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BV101"/>
+  <dimension ref="A1:BV103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1286,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="10">
-        <f t="shared" ref="D5:D61" si="0">C5*B5</f>
+        <f t="shared" ref="D5:D63" si="0">C5*B5</f>
         <v>0</v>
       </c>
       <c r="E5" s="8"/>
@@ -1307,11 +1313,11 @@
         <v>760.9</v>
       </c>
       <c r="C7" s="8">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="D7" s="10">
         <f>C7*B7</f>
-        <v>38045</v>
+        <v>140005.6</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>82</v>
@@ -1386,17 +1392,19 @@
       <c r="BU7" s="29"/>
       <c r="BV7" s="29"/>
     </row>
-    <row r="8" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="9">
         <v>769.92</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>89</v>
+      </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68522.87999999999</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>82</v>
@@ -1487,145 +1495,147 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="9">
         <v>770.92</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8">
+        <v>310</v>
+      </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>238985.19999999998</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:74" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="9">
+        <v>779.96</v>
+      </c>
+      <c r="C11" s="8">
+        <v>38</v>
+      </c>
+      <c r="D11" s="10">
+        <f>C11*B11</f>
+        <v>29638.480000000003</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:74" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C11" s="8">
-        <v>80</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>71698.8</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="C12" s="8">
+        <v>359</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>321748.36499999999</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
-      <c r="BK11" s="29"/>
-      <c r="BL11" s="29"/>
-      <c r="BM11" s="29"/>
-      <c r="BN11" s="29"/>
-      <c r="BO11" s="29"/>
-      <c r="BP11" s="29"/>
-      <c r="BQ11" s="29"/>
-      <c r="BR11" s="29"/>
-      <c r="BS11" s="29"/>
-      <c r="BT11" s="29"/>
-      <c r="BU11" s="29"/>
-      <c r="BV11" s="29"/>
-    </row>
-    <row r="12" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9">
-        <v>868.16499999999996</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
+      <c r="BK12" s="29"/>
+      <c r="BL12" s="29"/>
+      <c r="BM12" s="29"/>
+      <c r="BN12" s="29"/>
+      <c r="BO12" s="29"/>
+      <c r="BP12" s="29"/>
+      <c r="BQ12" s="29"/>
+      <c r="BR12" s="29"/>
+      <c r="BS12" s="29"/>
+      <c r="BT12" s="29"/>
+      <c r="BU12" s="29"/>
+      <c r="BV12" s="29"/>
     </row>
     <row r="13" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9">
-        <v>901.24749999999995</v>
+        <v>868.16499999999996</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B14" s="9">
-        <v>858.14</v>
+        <v>901.24749999999995</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10">
@@ -1633,194 +1643,198 @@
         <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B15" s="9">
-        <v>824.06</v>
+        <v>858.14</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="9">
+        <v>824.06</v>
+      </c>
+      <c r="C16" s="8">
+        <v>248</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C16*B16</f>
+        <v>204366.87999999998</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:74" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="9">
         <v>858.14</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="C17" s="8">
+        <v>109</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>93537.26</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B18" s="9">
         <v>946.36</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B19" s="9">
         <v>980.44500000000005</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12">
-        <f>C18*B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="12">
+        <f>C19*B19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9">
-        <v>975.4325</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="B20" s="9">
-        <v>1159.8900000000001</v>
+        <v>975.4325</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="10">
-        <f>C20*B20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="29"/>
-      <c r="BL20" s="29"/>
-      <c r="BM20" s="29"/>
-      <c r="BN20" s="29"/>
-      <c r="BO20" s="29"/>
-      <c r="BP20" s="29"/>
-      <c r="BQ20" s="29"/>
-      <c r="BR20" s="29"/>
-      <c r="BS20" s="29"/>
-      <c r="BT20" s="29"/>
-      <c r="BU20" s="29"/>
-      <c r="BV20" s="29"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B21" s="9">
-        <v>1140.845</v>
+        <v>1159.8900000000001</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <f>C21*B21</f>
         <v>0</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="29"/>
+      <c r="BF21" s="29"/>
+      <c r="BG21" s="29"/>
+      <c r="BH21" s="29"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="29"/>
+      <c r="BK21" s="29"/>
+      <c r="BL21" s="29"/>
+      <c r="BM21" s="29"/>
+      <c r="BN21" s="29"/>
+      <c r="BO21" s="29"/>
+      <c r="BP21" s="29"/>
+      <c r="BQ21" s="29"/>
+      <c r="BR21" s="29"/>
+      <c r="BS21" s="29"/>
+      <c r="BT21" s="29"/>
+      <c r="BU21" s="29"/>
+      <c r="BV21" s="29"/>
     </row>
     <row r="22" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B22" s="9">
-        <v>1238.0875000000001</v>
+        <v>1140.845</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="12">
@@ -1828,350 +1842,421 @@
         <v>0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>59</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="9">
-        <v>878.19</v>
+        <v>1238.0875000000001</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="s">
+        <f>C23*B23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9">
+        <v>878.19</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="29"/>
-      <c r="AT23" s="29"/>
-      <c r="AU23" s="29"/>
-      <c r="AV23" s="29"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
-      <c r="BE23" s="29"/>
-      <c r="BF23" s="29"/>
-      <c r="BG23" s="29"/>
-      <c r="BH23" s="29"/>
-      <c r="BI23" s="29"/>
-      <c r="BJ23" s="29"/>
-      <c r="BK23" s="29"/>
-      <c r="BL23" s="29"/>
-      <c r="BM23" s="29"/>
-      <c r="BN23" s="29"/>
-      <c r="BO23" s="29"/>
-      <c r="BP23" s="29"/>
-      <c r="BQ23" s="29"/>
-      <c r="BR23" s="29"/>
-      <c r="BS23" s="29"/>
-      <c r="BT23" s="29"/>
-      <c r="BU23" s="29"/>
-      <c r="BV23" s="29"/>
-    </row>
-    <row r="24" spans="1:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
+      <c r="BE24" s="29"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
+      <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
+      <c r="BO24" s="29"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="29"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="29"/>
+      <c r="BU24" s="29"/>
+      <c r="BV24" s="29"/>
+    </row>
+    <row r="25" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="9">
         <v>1014.53</v>
       </c>
-      <c r="C24" s="8">
-        <v>80</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>81162.399999999994</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="C25" s="8">
+        <v>309</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
+        <v>313489.77</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="26" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B26" s="9">
         <v>907.26</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="C26" s="8">
+        <v>438</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
+        <v>397379.88</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="29"/>
-      <c r="AR25" s="29"/>
-      <c r="AS25" s="29"/>
-      <c r="AT25" s="29"/>
-      <c r="AU25" s="29"/>
-      <c r="AV25" s="29"/>
-      <c r="AW25" s="29"/>
-      <c r="AX25" s="29"/>
-      <c r="AY25" s="29"/>
-      <c r="AZ25" s="29"/>
-      <c r="BA25" s="29"/>
-      <c r="BB25" s="29"/>
-      <c r="BC25" s="29"/>
-      <c r="BD25" s="29"/>
-      <c r="BE25" s="29"/>
-      <c r="BF25" s="29"/>
-      <c r="BG25" s="29"/>
-      <c r="BH25" s="29"/>
-      <c r="BI25" s="29"/>
-      <c r="BJ25" s="29"/>
-      <c r="BK25" s="29"/>
-      <c r="BL25" s="29"/>
-      <c r="BM25" s="29"/>
-      <c r="BN25" s="29"/>
-      <c r="BO25" s="29"/>
-      <c r="BP25" s="29"/>
-      <c r="BQ25" s="29"/>
-      <c r="BR25" s="29"/>
-      <c r="BS25" s="29"/>
-      <c r="BT25" s="29"/>
-      <c r="BU25" s="29"/>
-      <c r="BV25" s="29"/>
-    </row>
-    <row r="26" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
+      <c r="AS26" s="29"/>
+      <c r="AT26" s="29"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="29"/>
+      <c r="BD26" s="29"/>
+      <c r="BE26" s="29"/>
+      <c r="BF26" s="29"/>
+      <c r="BG26" s="29"/>
+      <c r="BH26" s="29"/>
+      <c r="BI26" s="29"/>
+      <c r="BJ26" s="29"/>
+      <c r="BK26" s="29"/>
+      <c r="BL26" s="29"/>
+      <c r="BM26" s="29"/>
+      <c r="BN26" s="29"/>
+      <c r="BO26" s="29"/>
+      <c r="BP26" s="29"/>
+      <c r="BQ26" s="29"/>
+      <c r="BR26" s="29"/>
+      <c r="BS26" s="29"/>
+      <c r="BT26" s="29"/>
+      <c r="BU26" s="29"/>
+      <c r="BV26" s="29"/>
+    </row>
+    <row r="27" spans="1:74" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="9">
         <v>1159.8924999999999</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="9">
-        <v>2309.7600000000002</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B28" s="9">
-        <v>2710.76</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="29"/>
-      <c r="AL28" s="29"/>
-      <c r="AM28" s="29"/>
-      <c r="AN28" s="29"/>
-      <c r="AO28" s="29"/>
-      <c r="AP28" s="29"/>
-      <c r="AQ28" s="29"/>
-      <c r="AR28" s="29"/>
-      <c r="AS28" s="29"/>
-      <c r="AT28" s="29"/>
-      <c r="AU28" s="29"/>
-      <c r="AV28" s="29"/>
-      <c r="AW28" s="29"/>
-      <c r="AX28" s="29"/>
-      <c r="AY28" s="29"/>
-      <c r="AZ28" s="29"/>
-      <c r="BA28" s="29"/>
-      <c r="BB28" s="29"/>
-      <c r="BC28" s="29"/>
-      <c r="BD28" s="29"/>
-      <c r="BE28" s="29"/>
-      <c r="BF28" s="29"/>
-      <c r="BG28" s="29"/>
-      <c r="BH28" s="29"/>
-      <c r="BI28" s="29"/>
-      <c r="BJ28" s="29"/>
-      <c r="BK28" s="29"/>
-      <c r="BL28" s="29"/>
-      <c r="BM28" s="29"/>
-      <c r="BN28" s="29"/>
-      <c r="BO28" s="29"/>
-      <c r="BP28" s="29"/>
-      <c r="BQ28" s="29"/>
-      <c r="BR28" s="29"/>
-      <c r="BS28" s="29"/>
-      <c r="BT28" s="29"/>
-      <c r="BU28" s="29"/>
-      <c r="BV28" s="29"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B29" s="9">
-        <v>6397.96</v>
+        <v>2710.76</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="29"/>
+      <c r="AT29" s="29"/>
+      <c r="AU29" s="29"/>
+      <c r="AV29" s="29"/>
+      <c r="AW29" s="29"/>
+      <c r="AX29" s="29"/>
+      <c r="AY29" s="29"/>
+      <c r="AZ29" s="29"/>
+      <c r="BA29" s="29"/>
+      <c r="BB29" s="29"/>
+      <c r="BC29" s="29"/>
+      <c r="BD29" s="29"/>
+      <c r="BE29" s="29"/>
+      <c r="BF29" s="29"/>
+      <c r="BG29" s="29"/>
+      <c r="BH29" s="29"/>
+      <c r="BI29" s="29"/>
+      <c r="BJ29" s="29"/>
+      <c r="BK29" s="29"/>
+      <c r="BL29" s="29"/>
+      <c r="BM29" s="29"/>
+      <c r="BN29" s="29"/>
+      <c r="BO29" s="29"/>
+      <c r="BP29" s="29"/>
+      <c r="BQ29" s="29"/>
+      <c r="BR29" s="29"/>
+      <c r="BS29" s="29"/>
+      <c r="BT29" s="29"/>
+      <c r="BU29" s="29"/>
+      <c r="BV29" s="29"/>
+    </row>
+    <row r="30" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="9">
+        <v>2702.42</v>
+      </c>
+      <c r="C30" s="8">
         <v>48</v>
       </c>
-      <c r="B30" s="9">
-        <v>5158.8649999999998</v>
-      </c>
-      <c r="C30" s="8"/>
       <c r="D30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>81</v>
-      </c>
+        <f>C30*B30</f>
+        <v>129716.16</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="29"/>
+      <c r="AT30" s="29"/>
+      <c r="AU30" s="29"/>
+      <c r="AV30" s="29"/>
+      <c r="AW30" s="29"/>
+      <c r="AX30" s="29"/>
+      <c r="AY30" s="29"/>
+      <c r="AZ30" s="29"/>
+      <c r="BA30" s="29"/>
+      <c r="BB30" s="29"/>
+      <c r="BC30" s="29"/>
+      <c r="BD30" s="29"/>
+      <c r="BE30" s="29"/>
+      <c r="BF30" s="29"/>
+      <c r="BG30" s="29"/>
+      <c r="BH30" s="29"/>
+      <c r="BI30" s="29"/>
+      <c r="BJ30" s="29"/>
+      <c r="BK30" s="29"/>
+      <c r="BL30" s="29"/>
+      <c r="BM30" s="29"/>
+      <c r="BN30" s="29"/>
+      <c r="BO30" s="29"/>
+      <c r="BP30" s="29"/>
+      <c r="BQ30" s="29"/>
+      <c r="BR30" s="29"/>
+      <c r="BS30" s="29"/>
+      <c r="BT30" s="29"/>
+      <c r="BU30" s="29"/>
+      <c r="BV30" s="29"/>
     </row>
     <row r="31" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B31" s="9">
-        <v>5334.3029999999999</v>
+        <v>6397.96</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="10">
@@ -2179,325 +2264,335 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="9">
+        <v>5158.8649999999998</v>
+      </c>
+      <c r="C32" s="8">
+        <v>70</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="0"/>
+        <v>361120.55</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4885.6000000000004</v>
+      </c>
+      <c r="C33" s="8">
+        <v>132</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" si="0"/>
+        <v>644899.20000000007</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="34" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B34" s="9">
         <v>5819.5124999999998</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B35" s="9">
         <v>5607.9849999999997</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
-      <c r="AG33" s="29"/>
-      <c r="AH33" s="29"/>
-      <c r="AI33" s="29"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="29"/>
-      <c r="AL33" s="29"/>
-      <c r="AM33" s="29"/>
-      <c r="AN33" s="29"/>
-      <c r="AO33" s="29"/>
-      <c r="AP33" s="29"/>
-      <c r="AQ33" s="29"/>
-      <c r="AR33" s="29"/>
-      <c r="AS33" s="29"/>
-      <c r="AT33" s="29"/>
-      <c r="AU33" s="29"/>
-      <c r="AV33" s="29"/>
-      <c r="AW33" s="29"/>
-      <c r="AX33" s="29"/>
-      <c r="AY33" s="29"/>
-      <c r="AZ33" s="29"/>
-      <c r="BA33" s="29"/>
-      <c r="BB33" s="29"/>
-      <c r="BC33" s="29"/>
-      <c r="BD33" s="29"/>
-      <c r="BE33" s="29"/>
-      <c r="BF33" s="29"/>
-      <c r="BG33" s="29"/>
-      <c r="BH33" s="29"/>
-      <c r="BI33" s="29"/>
-      <c r="BJ33" s="29"/>
-      <c r="BK33" s="29"/>
-      <c r="BL33" s="29"/>
-      <c r="BM33" s="29"/>
-      <c r="BN33" s="29"/>
-      <c r="BO33" s="29"/>
-      <c r="BP33" s="29"/>
-      <c r="BQ33" s="29"/>
-      <c r="BR33" s="29"/>
-      <c r="BS33" s="29"/>
-      <c r="BT33" s="29"/>
-      <c r="BU33" s="29"/>
-      <c r="BV33" s="29"/>
-    </row>
-    <row r="34" spans="1:74" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="9">
-        <v>5412.5</v>
-      </c>
-      <c r="C34" s="8">
-        <v>7</v>
-      </c>
-      <c r="D34" s="10">
-        <f>C34*B34</f>
-        <v>37887.5</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
-      <c r="AG34" s="29"/>
-      <c r="AH34" s="29"/>
-      <c r="AI34" s="29"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="29"/>
-      <c r="AL34" s="29"/>
-      <c r="AM34" s="29"/>
-      <c r="AN34" s="29"/>
-      <c r="AO34" s="29"/>
-      <c r="AP34" s="29"/>
-      <c r="AQ34" s="29"/>
-      <c r="AR34" s="29"/>
-      <c r="AS34" s="29"/>
-      <c r="AT34" s="29"/>
-      <c r="AU34" s="29"/>
-      <c r="AV34" s="29"/>
-      <c r="AW34" s="29"/>
-      <c r="AX34" s="29"/>
-      <c r="AY34" s="29"/>
-      <c r="AZ34" s="29"/>
-      <c r="BA34" s="29"/>
-      <c r="BB34" s="29"/>
-      <c r="BC34" s="29"/>
-      <c r="BD34" s="29"/>
-      <c r="BE34" s="29"/>
-      <c r="BF34" s="29"/>
-      <c r="BG34" s="29"/>
-      <c r="BH34" s="29"/>
-      <c r="BI34" s="29"/>
-      <c r="BJ34" s="29"/>
-      <c r="BK34" s="29"/>
-      <c r="BL34" s="29"/>
-      <c r="BM34" s="29"/>
-      <c r="BN34" s="29"/>
-      <c r="BO34" s="29"/>
-      <c r="BP34" s="29"/>
-      <c r="BQ34" s="29"/>
-      <c r="BR34" s="29"/>
-      <c r="BS34" s="29"/>
-      <c r="BT34" s="29"/>
-      <c r="BU34" s="29"/>
-      <c r="BV34" s="29"/>
-    </row>
-    <row r="35" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9">
-        <v>5793.4475000000002</v>
-      </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8">
+        <v>18</v>
+      </c>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100943.73</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+      <c r="BB35" s="29"/>
+      <c r="BC35" s="29"/>
+      <c r="BD35" s="29"/>
+      <c r="BE35" s="29"/>
+      <c r="BF35" s="29"/>
+      <c r="BG35" s="29"/>
+      <c r="BH35" s="29"/>
+      <c r="BI35" s="29"/>
+      <c r="BJ35" s="29"/>
+      <c r="BK35" s="29"/>
+      <c r="BL35" s="29"/>
+      <c r="BM35" s="29"/>
+      <c r="BN35" s="29"/>
+      <c r="BO35" s="29"/>
+      <c r="BP35" s="29"/>
+      <c r="BQ35" s="29"/>
+      <c r="BR35" s="29"/>
+      <c r="BS35" s="29"/>
+      <c r="BT35" s="29"/>
+      <c r="BU35" s="29"/>
+      <c r="BV35" s="29"/>
+    </row>
+    <row r="36" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B36" s="9">
-        <v>7714.2375000000002</v>
-      </c>
-      <c r="C36" s="8"/>
+        <v>5412.5</v>
+      </c>
+      <c r="C36" s="8">
+        <v>80</v>
+      </c>
       <c r="D36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11"/>
+        <f>C36*B36</f>
+        <v>433000</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29"/>
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+      <c r="BB36" s="29"/>
+      <c r="BC36" s="29"/>
+      <c r="BD36" s="29"/>
+      <c r="BE36" s="29"/>
+      <c r="BF36" s="29"/>
+      <c r="BG36" s="29"/>
+      <c r="BH36" s="29"/>
+      <c r="BI36" s="29"/>
+      <c r="BJ36" s="29"/>
+      <c r="BK36" s="29"/>
+      <c r="BL36" s="29"/>
+      <c r="BM36" s="29"/>
+      <c r="BN36" s="29"/>
+      <c r="BO36" s="29"/>
+      <c r="BP36" s="29"/>
+      <c r="BQ36" s="29"/>
+      <c r="BR36" s="29"/>
+      <c r="BS36" s="29"/>
+      <c r="BT36" s="29"/>
+      <c r="BU36" s="29"/>
+      <c r="BV36" s="29"/>
     </row>
     <row r="37" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B37" s="9">
-        <v>7722.2574999999997</v>
+        <v>5793.4475000000002</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="38" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B38" s="9">
-        <v>6369.8850000000002</v>
+        <v>7714.2375000000002</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:74" ht="15" x14ac:dyDescent="0.25">
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B39" s="9">
-        <v>6715.95</v>
-      </c>
-      <c r="C39" s="8">
-        <v>31</v>
-      </c>
+        <v>7722.2574999999997</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="10">
         <f t="shared" si="0"/>
-        <v>208194.44999999998</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B40" s="9">
-        <v>8967.36</v>
-      </c>
-      <c r="C40" s="8"/>
+        <v>6369.8850000000002</v>
+      </c>
+      <c r="C40" s="8">
+        <v>30</v>
+      </c>
       <c r="D40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>191096.55000000002</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B41" s="9">
-        <v>8134.2849999999999</v>
-      </c>
-      <c r="C41" s="8"/>
+        <v>6715.95</v>
+      </c>
+      <c r="C41" s="8">
+        <v>120</v>
+      </c>
       <c r="D41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>805914</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="42" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B42" s="9">
-        <v>1169.9175</v>
+        <v>8967.36</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="10">
-        <f>C42*B42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B43" s="9">
-        <v>1199.9925000000001</v>
+        <v>8134.2849999999999</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="10">
@@ -2508,26 +2603,26 @@
     </row>
     <row r="44" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44" s="9">
-        <v>1189.9675</v>
+        <v>1169.9175</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="10">
-        <f t="shared" si="0"/>
+        <f>C44*B44</f>
         <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B45" s="9">
-        <v>1423.55</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="10">
@@ -2538,24 +2633,26 @@
     </row>
     <row r="46" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9">
-        <v>1042.5999999999999</v>
+        <v>1189.9675</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B47" s="9">
-        <v>1435.58</v>
+        <v>1423.55</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="10">
@@ -2566,47 +2663,45 @@
     </row>
     <row r="48" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B48" s="9">
-        <v>1024.5550000000001</v>
+        <v>1042.5999999999999</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="10">
-        <f>C48*B48</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B49" s="9">
-        <v>1053.6275000000001</v>
+        <v>1435.58</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B50" s="9">
-        <v>1072.675</v>
-      </c>
-      <c r="C50" s="8"/>
+        <v>1024.5550000000001</v>
+      </c>
+      <c r="C50" s="8">
+        <v>20</v>
+      </c>
       <c r="D50" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C50*B50</f>
+        <v>20491.100000000002</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>92</v>
@@ -2614,10 +2709,10 @@
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B51" s="9">
-        <v>985.46</v>
+        <v>1053.6275000000001</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="10">
@@ -2625,106 +2720,112 @@
         <v>0</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B52" s="9">
-        <v>1014.53</v>
-      </c>
-      <c r="C52" s="8"/>
+        <v>1072.675</v>
+      </c>
+      <c r="C52" s="8">
+        <v>218</v>
+      </c>
       <c r="D52" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>233843.15</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B53" s="9">
-        <v>945.36</v>
+        <v>985.46</v>
       </c>
       <c r="C53" s="8">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="D53" s="10">
-        <f>B53*C53</f>
-        <v>189072</v>
+        <f t="shared" si="0"/>
+        <v>32520.18</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B54" s="9">
-        <v>1072.675</v>
+        <v>1014.53</v>
       </c>
       <c r="C54" s="8"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B55" s="9">
-        <v>1077.6875</v>
-      </c>
-      <c r="C55" s="8"/>
+        <v>945.36</v>
+      </c>
+      <c r="C55" s="8">
+        <v>630</v>
+      </c>
       <c r="D55" s="10">
         <f>B55*C55</f>
-        <v>0</v>
+        <v>595576.80000000005</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B56" s="9">
-        <v>1024.5550000000001</v>
+        <v>1072.675</v>
       </c>
       <c r="C56" s="8"/>
-      <c r="D56" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B57" s="9">
-        <v>1101.7474999999999</v>
+        <v>1077.6875</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="8"/>
+        <f>B57*C57</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B58" s="9">
-        <v>1072.675</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="10">
@@ -2732,15 +2833,15 @@
         <v>0</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B59" s="9">
-        <v>1297.2349999999999</v>
+        <v>1101.7474999999999</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="10">
@@ -2751,86 +2852,86 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B60" s="9">
-        <v>11964.8375</v>
+        <v>1072.675</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E60" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B61" s="9">
-        <v>5607.9849999999997</v>
-      </c>
-      <c r="C61" s="8">
-        <v>14</v>
-      </c>
+        <v>1297.2349999999999</v>
+      </c>
+      <c r="C61" s="8"/>
       <c r="D61" s="10">
         <f t="shared" si="0"/>
-        <v>78511.789999999994</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B62" s="9">
-        <v>5183.9274999999998</v>
+        <v>11964.8375</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="10">
-        <f t="shared" ref="D62:D86" si="1">C62*B62</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B63" s="9">
-        <v>5455.6049999999996</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>5607.9849999999997</v>
+      </c>
+      <c r="C63" s="8">
+        <v>12</v>
+      </c>
       <c r="D63" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="8"/>
+        <f t="shared" si="0"/>
+        <v>67295.819999999992</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B64" s="9">
-        <v>4526.2875000000004</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>81</v>
-      </c>
+        <f t="shared" ref="D64:D88" si="1">C64*B64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B65" s="9">
-        <v>5510.7425000000003</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10">
@@ -2839,17 +2940,19 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B66" s="9">
-        <v>4896.21</v>
-      </c>
-      <c r="C66" s="8"/>
+        <v>4526.2875000000004</v>
+      </c>
+      <c r="C66" s="8">
+        <v>25</v>
+      </c>
       <c r="D66" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113157.18750000001</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>81</v>
@@ -2857,10 +2960,10 @@
     </row>
     <row r="67" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B67" s="9">
-        <v>5150.8450000000003</v>
+        <v>5510.7425000000003</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="10">
@@ -2871,10 +2974,10 @@
     </row>
     <row r="68" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B68" s="9">
-        <v>4973.4025000000001</v>
+        <v>4896.21</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="10">
@@ -2882,173 +2985,106 @@
         <v>0</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B69" s="9">
-        <v>4701.7299999999996</v>
+        <v>5150.8450000000003</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="36"/>
-      <c r="P69" s="36"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="36"/>
-      <c r="AI69" s="36"/>
-      <c r="AJ69" s="36"/>
-      <c r="AK69" s="36"/>
-      <c r="AL69" s="36"/>
-      <c r="AM69" s="36"/>
-      <c r="AN69" s="36"/>
-      <c r="AO69" s="36"/>
-      <c r="AP69" s="36"/>
-      <c r="AQ69" s="36"/>
-      <c r="AR69" s="36"/>
-      <c r="AS69" s="36"/>
-      <c r="AT69" s="36"/>
-      <c r="AU69" s="36"/>
-      <c r="AV69" s="36"/>
-      <c r="AW69" s="36"/>
-      <c r="AX69" s="36"/>
-      <c r="AY69" s="36"/>
-      <c r="AZ69" s="36"/>
-      <c r="BA69" s="36"/>
-      <c r="BB69" s="36"/>
-      <c r="BC69" s="36"/>
-      <c r="BD69" s="29"/>
-      <c r="BE69" s="29"/>
-      <c r="BF69" s="29"/>
-      <c r="BG69" s="29"/>
-      <c r="BH69" s="29"/>
-      <c r="BI69" s="29"/>
-      <c r="BJ69" s="29"/>
-      <c r="BK69" s="29"/>
-      <c r="BL69" s="29"/>
-      <c r="BM69" s="29"/>
-      <c r="BN69" s="29"/>
-      <c r="BO69" s="29"/>
-      <c r="BP69" s="29"/>
-      <c r="BQ69" s="29"/>
-      <c r="BR69" s="29"/>
-      <c r="BS69" s="29"/>
-      <c r="BT69" s="29"/>
-      <c r="BU69" s="29"/>
-      <c r="BV69" s="29"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B70" s="9">
-        <v>5940.8149999999996</v>
+        <v>4973.4025000000001</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="10">
-        <f>C70*B70</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B71" s="9">
-        <v>5257.11</v>
-      </c>
-      <c r="C71" s="8"/>
+        <v>4701.7299999999996</v>
+      </c>
+      <c r="C71" s="8">
+        <v>49</v>
+      </c>
       <c r="D71" s="10">
-        <f>C71*B71</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>230384.77</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="29"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="29"/>
-      <c r="U71" s="29"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-      <c r="AD71" s="29"/>
-      <c r="AE71" s="29"/>
-      <c r="AF71" s="29"/>
-      <c r="AG71" s="29"/>
-      <c r="AH71" s="29"/>
-      <c r="AI71" s="29"/>
-      <c r="AJ71" s="29"/>
-      <c r="AK71" s="29"/>
-      <c r="AL71" s="29"/>
-      <c r="AM71" s="29"/>
-      <c r="AN71" s="29"/>
-      <c r="AO71" s="29"/>
-      <c r="AP71" s="29"/>
-      <c r="AQ71" s="29"/>
-      <c r="AR71" s="29"/>
-      <c r="AS71" s="29"/>
-      <c r="AT71" s="29"/>
-      <c r="AU71" s="29"/>
-      <c r="AV71" s="29"/>
-      <c r="AW71" s="29"/>
-      <c r="AX71" s="29"/>
-      <c r="AY71" s="29"/>
-      <c r="AZ71" s="29"/>
-      <c r="BA71" s="29"/>
-      <c r="BB71" s="29"/>
-      <c r="BC71" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="36"/>
+      <c r="AA71" s="36"/>
+      <c r="AB71" s="36"/>
+      <c r="AC71" s="36"/>
+      <c r="AD71" s="36"/>
+      <c r="AE71" s="36"/>
+      <c r="AF71" s="36"/>
+      <c r="AG71" s="36"/>
+      <c r="AH71" s="36"/>
+      <c r="AI71" s="36"/>
+      <c r="AJ71" s="36"/>
+      <c r="AK71" s="36"/>
+      <c r="AL71" s="36"/>
+      <c r="AM71" s="36"/>
+      <c r="AN71" s="36"/>
+      <c r="AO71" s="36"/>
+      <c r="AP71" s="36"/>
+      <c r="AQ71" s="36"/>
+      <c r="AR71" s="36"/>
+      <c r="AS71" s="36"/>
+      <c r="AT71" s="36"/>
+      <c r="AU71" s="36"/>
+      <c r="AV71" s="36"/>
+      <c r="AW71" s="36"/>
+      <c r="AX71" s="36"/>
+      <c r="AY71" s="36"/>
+      <c r="AZ71" s="36"/>
+      <c r="BA71" s="36"/>
+      <c r="BB71" s="36"/>
+      <c r="BC71" s="36"/>
       <c r="BD71" s="29"/>
       <c r="BE71" s="29"/>
       <c r="BF71" s="29"/>
@@ -3071,56 +3107,123 @@
     </row>
     <row r="72" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B72" s="9">
-        <v>3556.87</v>
+        <v>5940.8149999999996</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="10">
-        <f t="shared" si="1"/>
+        <f>C72*B72</f>
         <v>0</v>
       </c>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B73" s="9">
-        <v>3471.6574999999998</v>
+        <v>5257.11</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="10">
-        <f t="shared" si="1"/>
+        <f>C73*B73</f>
         <v>0</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
+      <c r="Y73" s="29"/>
+      <c r="Z73" s="29"/>
+      <c r="AA73" s="29"/>
+      <c r="AB73" s="29"/>
+      <c r="AC73" s="29"/>
+      <c r="AD73" s="29"/>
+      <c r="AE73" s="29"/>
+      <c r="AF73" s="29"/>
+      <c r="AG73" s="29"/>
+      <c r="AH73" s="29"/>
+      <c r="AI73" s="29"/>
+      <c r="AJ73" s="29"/>
+      <c r="AK73" s="29"/>
+      <c r="AL73" s="29"/>
+      <c r="AM73" s="29"/>
+      <c r="AN73" s="29"/>
+      <c r="AO73" s="29"/>
+      <c r="AP73" s="29"/>
+      <c r="AQ73" s="29"/>
+      <c r="AR73" s="29"/>
+      <c r="AS73" s="29"/>
+      <c r="AT73" s="29"/>
+      <c r="AU73" s="29"/>
+      <c r="AV73" s="29"/>
+      <c r="AW73" s="29"/>
+      <c r="AX73" s="29"/>
+      <c r="AY73" s="29"/>
+      <c r="AZ73" s="29"/>
+      <c r="BA73" s="29"/>
+      <c r="BB73" s="29"/>
+      <c r="BC73" s="29"/>
+      <c r="BD73" s="29"/>
+      <c r="BE73" s="29"/>
+      <c r="BF73" s="29"/>
+      <c r="BG73" s="29"/>
+      <c r="BH73" s="29"/>
+      <c r="BI73" s="29"/>
+      <c r="BJ73" s="29"/>
+      <c r="BK73" s="29"/>
+      <c r="BL73" s="29"/>
+      <c r="BM73" s="29"/>
+      <c r="BN73" s="29"/>
+      <c r="BO73" s="29"/>
+      <c r="BP73" s="29"/>
+      <c r="BQ73" s="29"/>
+      <c r="BR73" s="29"/>
+      <c r="BS73" s="29"/>
+      <c r="BT73" s="29"/>
+      <c r="BU73" s="29"/>
+      <c r="BV73" s="29"/>
     </row>
     <row r="74" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B74" s="9">
-        <v>3257.1224999999999</v>
+        <v>3556.87</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B75" s="9">
-        <v>4389.9475000000002</v>
+        <v>3471.6574999999998</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="10">
@@ -3128,31 +3231,33 @@
         <v>0</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B76" s="9">
-        <v>3618.0225</v>
-      </c>
-      <c r="C76" s="8"/>
+        <v>3257.1224999999999</v>
+      </c>
+      <c r="C76" s="8">
+        <v>36</v>
+      </c>
       <c r="D76" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117256.41</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B77" s="9">
-        <v>3530.8049999999998</v>
+        <v>4389.9475000000002</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="10">
@@ -3165,221 +3270,175 @@
     </row>
     <row r="78" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B78" s="9">
-        <v>4507.24</v>
+        <v>3618.0225</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E78" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B79" s="9">
-        <v>4408.9949999999999</v>
-      </c>
-      <c r="C79" s="8"/>
+        <v>3530.8049999999998</v>
+      </c>
+      <c r="C79" s="8">
+        <v>35</v>
+      </c>
       <c r="D79" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="8"/>
+        <v>123578.17499999999</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="80" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B80" s="9">
-        <v>3979.9250000000002</v>
+        <v>4507.24</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
-      <c r="AE80" s="29"/>
-      <c r="AF80" s="29"/>
-      <c r="AG80" s="29"/>
-      <c r="AH80" s="29"/>
-      <c r="AI80" s="29"/>
-      <c r="AJ80" s="29"/>
-      <c r="AK80" s="29"/>
-      <c r="AL80" s="29"/>
-      <c r="AM80" s="29"/>
-      <c r="AN80" s="29"/>
-      <c r="AO80" s="29"/>
-      <c r="AP80" s="29"/>
-      <c r="AQ80" s="29"/>
-      <c r="AR80" s="29"/>
-      <c r="AS80" s="29"/>
-      <c r="AT80" s="29"/>
-      <c r="AU80" s="29"/>
-      <c r="AV80" s="29"/>
-      <c r="AW80" s="29"/>
-      <c r="AX80" s="29"/>
-      <c r="AY80" s="29"/>
-      <c r="AZ80" s="29"/>
-      <c r="BA80" s="29"/>
-      <c r="BB80" s="29"/>
-      <c r="BC80" s="29"/>
-      <c r="BD80" s="29"/>
-      <c r="BE80" s="29"/>
-      <c r="BF80" s="29"/>
-      <c r="BG80" s="29"/>
-      <c r="BH80" s="29"/>
-      <c r="BI80" s="29"/>
-      <c r="BJ80" s="29"/>
-      <c r="BK80" s="29"/>
-      <c r="BL80" s="29"/>
-      <c r="BM80" s="29"/>
-      <c r="BN80" s="29"/>
-      <c r="BO80" s="29"/>
-      <c r="BP80" s="29"/>
-      <c r="BQ80" s="29"/>
-      <c r="BR80" s="29"/>
-      <c r="BS80" s="29"/>
-      <c r="BT80" s="29"/>
-      <c r="BU80" s="29"/>
-      <c r="BV80" s="29"/>
-    </row>
-    <row r="81" spans="1:55" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B81" s="9">
-        <v>3618.02</v>
+        <v>4408.9949999999999</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B82" s="9">
-        <v>1219.04</v>
+        <v>3979.9250000000002</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="10">
-        <f>B82*C82</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="29"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
+      <c r="X82" s="29"/>
+      <c r="Y82" s="29"/>
+      <c r="Z82" s="29"/>
+      <c r="AA82" s="29"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="29"/>
+      <c r="AJ82" s="29"/>
+      <c r="AK82" s="29"/>
+      <c r="AL82" s="29"/>
+      <c r="AM82" s="29"/>
+      <c r="AN82" s="29"/>
+      <c r="AO82" s="29"/>
+      <c r="AP82" s="29"/>
+      <c r="AQ82" s="29"/>
+      <c r="AR82" s="29"/>
+      <c r="AS82" s="29"/>
+      <c r="AT82" s="29"/>
+      <c r="AU82" s="29"/>
+      <c r="AV82" s="29"/>
+      <c r="AW82" s="29"/>
+      <c r="AX82" s="29"/>
+      <c r="AY82" s="29"/>
+      <c r="AZ82" s="29"/>
+      <c r="BA82" s="29"/>
+      <c r="BB82" s="29"/>
+      <c r="BC82" s="29"/>
+      <c r="BD82" s="29"/>
+      <c r="BE82" s="29"/>
+      <c r="BF82" s="29"/>
+      <c r="BG82" s="29"/>
+      <c r="BH82" s="29"/>
+      <c r="BI82" s="29"/>
+      <c r="BJ82" s="29"/>
+      <c r="BK82" s="29"/>
+      <c r="BL82" s="29"/>
+      <c r="BM82" s="29"/>
+      <c r="BN82" s="29"/>
+      <c r="BO82" s="29"/>
+      <c r="BP82" s="29"/>
+      <c r="BQ82" s="29"/>
+      <c r="BR82" s="29"/>
+      <c r="BS82" s="29"/>
+      <c r="BT82" s="29"/>
+      <c r="BU82" s="29"/>
+      <c r="BV82" s="29"/>
+    </row>
+    <row r="83" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B83" s="9">
-        <v>1336.3325</v>
-      </c>
-      <c r="C83" s="8"/>
+        <v>3618.02</v>
+      </c>
+      <c r="C83" s="8">
+        <v>62</v>
+      </c>
       <c r="D83" s="10">
-        <f>B83*C83</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>224317.24</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
-      <c r="J83" s="36"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="36"/>
-      <c r="P83" s="36"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="36"/>
-      <c r="W83" s="36"/>
-      <c r="X83" s="36"/>
-      <c r="Y83" s="36"/>
-      <c r="Z83" s="36"/>
-      <c r="AA83" s="36"/>
-      <c r="AB83" s="36"/>
-      <c r="AC83" s="36"/>
-      <c r="AD83" s="36"/>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="36"/>
-      <c r="AG83" s="36"/>
-      <c r="AH83" s="36"/>
-      <c r="AI83" s="36"/>
-      <c r="AJ83" s="36"/>
-      <c r="AK83" s="36"/>
-      <c r="AL83" s="36"/>
-      <c r="AM83" s="36"/>
-      <c r="AN83" s="36"/>
-      <c r="AO83" s="36"/>
-      <c r="AP83" s="36"/>
-      <c r="AQ83" s="36"/>
-      <c r="AR83" s="36"/>
-      <c r="AS83" s="36"/>
-      <c r="AT83" s="36"/>
-      <c r="AU83" s="36"/>
-      <c r="AV83" s="36"/>
-      <c r="AW83" s="36"/>
-      <c r="AX83" s="36"/>
-      <c r="AY83" s="36"/>
-      <c r="AZ83" s="36"/>
-      <c r="BA83" s="36"/>
-      <c r="BB83" s="36"/>
-      <c r="BC83" s="36"/>
-    </row>
-    <row r="84" spans="1:55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B84" s="9">
-        <v>1159.8900000000001</v>
+        <v>1219.04</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="10">
@@ -3387,65 +3446,15 @@
         <v>0</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="36"/>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="36"/>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="36"/>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36"/>
-      <c r="AI84" s="36"/>
-      <c r="AJ84" s="36"/>
-      <c r="AK84" s="36"/>
-      <c r="AL84" s="36"/>
-      <c r="AM84" s="36"/>
-      <c r="AN84" s="36"/>
-      <c r="AO84" s="36"/>
-      <c r="AP84" s="36"/>
-      <c r="AQ84" s="36"/>
-      <c r="AR84" s="36"/>
-      <c r="AS84" s="36"/>
-      <c r="AT84" s="36"/>
-      <c r="AU84" s="36"/>
-      <c r="AV84" s="36"/>
-      <c r="AW84" s="36"/>
-      <c r="AX84" s="36"/>
-      <c r="AY84" s="36"/>
-      <c r="AZ84" s="36"/>
-      <c r="BA84" s="36"/>
-      <c r="BB84" s="36"/>
-      <c r="BC84" s="36"/>
-    </row>
-    <row r="85" spans="1:55" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B85" s="9">
-        <v>1072.675</v>
+        <v>1336.3325</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="10">
@@ -3453,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
@@ -3506,281 +3515,393 @@
       <c r="BB85" s="36"/>
       <c r="BC85" s="36"/>
     </row>
-    <row r="86" spans="1:55" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" s="9">
+        <v>1159.8900000000001</v>
+      </c>
+      <c r="C86" s="8">
+        <v>103</v>
+      </c>
+      <c r="D86" s="10">
+        <f>B86*C86</f>
+        <v>119468.67000000001</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36"/>
+      <c r="P86" s="36"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="36"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="36"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="36"/>
+      <c r="Z86" s="36"/>
+      <c r="AA86" s="36"/>
+      <c r="AB86" s="36"/>
+      <c r="AC86" s="36"/>
+      <c r="AD86" s="36"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36"/>
+      <c r="AG86" s="36"/>
+      <c r="AH86" s="36"/>
+      <c r="AI86" s="36"/>
+      <c r="AJ86" s="36"/>
+      <c r="AK86" s="36"/>
+      <c r="AL86" s="36"/>
+      <c r="AM86" s="36"/>
+      <c r="AN86" s="36"/>
+      <c r="AO86" s="36"/>
+      <c r="AP86" s="36"/>
+      <c r="AQ86" s="36"/>
+      <c r="AR86" s="36"/>
+      <c r="AS86" s="36"/>
+      <c r="AT86" s="36"/>
+      <c r="AU86" s="36"/>
+      <c r="AV86" s="36"/>
+      <c r="AW86" s="36"/>
+      <c r="AX86" s="36"/>
+      <c r="AY86" s="36"/>
+      <c r="AZ86" s="36"/>
+      <c r="BA86" s="36"/>
+      <c r="BB86" s="36"/>
+      <c r="BC86" s="36"/>
+    </row>
+    <row r="87" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="9">
+        <v>1072.675</v>
+      </c>
+      <c r="C87" s="8">
+        <v>47</v>
+      </c>
+      <c r="D87" s="10">
+        <f>B87*C87</f>
+        <v>50415.724999999999</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36"/>
+      <c r="P87" s="36"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="36"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
+      <c r="AC87" s="36"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
+      <c r="AG87" s="36"/>
+      <c r="AH87" s="36"/>
+      <c r="AI87" s="36"/>
+      <c r="AJ87" s="36"/>
+      <c r="AK87" s="36"/>
+      <c r="AL87" s="36"/>
+      <c r="AM87" s="36"/>
+      <c r="AN87" s="36"/>
+      <c r="AO87" s="36"/>
+      <c r="AP87" s="36"/>
+      <c r="AQ87" s="36"/>
+      <c r="AR87" s="36"/>
+      <c r="AS87" s="36"/>
+      <c r="AT87" s="36"/>
+      <c r="AU87" s="36"/>
+      <c r="AV87" s="36"/>
+      <c r="AW87" s="36"/>
+      <c r="AX87" s="36"/>
+      <c r="AY87" s="36"/>
+      <c r="AZ87" s="36"/>
+      <c r="BA87" s="36"/>
+      <c r="BB87" s="36"/>
+      <c r="BC87" s="36"/>
+    </row>
+    <row r="88" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B88" s="9">
         <v>8599.4449999999997</v>
       </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="10">
+      <c r="C88" s="8"/>
+      <c r="D88" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:55" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B89" s="9">
         <v>8101.24</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="10">
-        <f>C87*B87</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:55" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="46" t="s">
+      <c r="C89" s="8"/>
+      <c r="D89" s="10">
+        <f>C89*B89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:74" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B88" s="46"/>
-      <c r="C88" s="18">
-        <f>SUM(C4:C86)</f>
-        <v>462</v>
-      </c>
-      <c r="D88" s="19">
-        <f>SUM(D4:D87)</f>
-        <v>704571.94000000006</v>
-      </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="37"/>
-      <c r="AE88" s="37"/>
-      <c r="AF88" s="37"/>
-      <c r="AG88" s="37"/>
-      <c r="AH88" s="37"/>
-      <c r="AI88" s="37"/>
-      <c r="AJ88" s="37"/>
-      <c r="AK88" s="37"/>
-      <c r="AL88" s="37"/>
-      <c r="AM88" s="37"/>
-      <c r="AN88" s="37"/>
-      <c r="AO88" s="37"/>
-      <c r="AP88" s="37"/>
-      <c r="AQ88" s="37"/>
-      <c r="AR88" s="37"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="37"/>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="37"/>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="37"/>
-      <c r="BC88" s="37"/>
-    </row>
-    <row r="89" spans="1:55" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="36"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
-      <c r="Z89" s="36"/>
-      <c r="AA89" s="36"/>
-      <c r="AB89" s="36"/>
-      <c r="AC89" s="36"/>
-      <c r="AD89" s="36"/>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
-      <c r="AG89" s="36"/>
-      <c r="AH89" s="36"/>
-      <c r="AI89" s="36"/>
-      <c r="AJ89" s="36"/>
-      <c r="AK89" s="36"/>
-      <c r="AL89" s="36"/>
-      <c r="AM89" s="36"/>
-      <c r="AN89" s="36"/>
-      <c r="AO89" s="36"/>
-      <c r="AP89" s="36"/>
-      <c r="AQ89" s="36"/>
-      <c r="AR89" s="36"/>
-      <c r="AS89" s="36"/>
-      <c r="AT89" s="36"/>
-      <c r="AU89" s="36"/>
-      <c r="AV89" s="36"/>
-      <c r="AW89" s="36"/>
-      <c r="AX89" s="36"/>
-      <c r="AY89" s="36"/>
-      <c r="AZ89" s="36"/>
-      <c r="BA89" s="36"/>
-      <c r="BB89" s="36"/>
-      <c r="BC89" s="36"/>
-    </row>
-    <row r="90" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="48"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
-      <c r="R90" s="38"/>
-      <c r="S90" s="38"/>
-      <c r="T90" s="38"/>
-      <c r="U90" s="38"/>
-      <c r="V90" s="38"/>
-      <c r="W90" s="38"/>
-      <c r="X90" s="38"/>
-      <c r="Y90" s="38"/>
-      <c r="Z90" s="38"/>
-      <c r="AA90" s="38"/>
-      <c r="AB90" s="38"/>
-      <c r="AC90" s="38"/>
-      <c r="AD90" s="38"/>
-      <c r="AE90" s="38"/>
-      <c r="AF90" s="38"/>
-      <c r="AG90" s="38"/>
-      <c r="AH90" s="38"/>
-      <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
-      <c r="AK90" s="38"/>
-      <c r="AL90" s="38"/>
-      <c r="AM90" s="38"/>
-      <c r="AN90" s="38"/>
-      <c r="AO90" s="38"/>
-      <c r="AP90" s="38"/>
-      <c r="AQ90" s="38"/>
-      <c r="AR90" s="38"/>
-      <c r="AS90" s="38"/>
-      <c r="AT90" s="38"/>
-      <c r="AU90" s="38"/>
-      <c r="AV90" s="38"/>
-      <c r="AW90" s="38"/>
-      <c r="AX90" s="38"/>
-      <c r="AY90" s="38"/>
-      <c r="AZ90" s="38"/>
-      <c r="BA90" s="38"/>
-      <c r="BB90" s="38"/>
-      <c r="BC90" s="38"/>
-    </row>
-    <row r="91" spans="1:55" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="30"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="25"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-    </row>
-    <row r="92" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="31"/>
-      <c r="B92" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="26"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-    </row>
-    <row r="93" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="32"/>
-      <c r="B93" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="26"/>
-      <c r="F93" s="28"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="18">
+        <f>SUM(C4:C88)</f>
+        <v>3852</v>
+      </c>
+      <c r="D90" s="19">
+        <f>SUM(D4:D89)</f>
+        <v>6402669.732499999</v>
+      </c>
+      <c r="E90" s="35"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="40"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="37"/>
+      <c r="AA90" s="37"/>
+      <c r="AB90" s="37"/>
+      <c r="AC90" s="37"/>
+      <c r="AD90" s="37"/>
+      <c r="AE90" s="37"/>
+      <c r="AF90" s="37"/>
+      <c r="AG90" s="37"/>
+      <c r="AH90" s="37"/>
+      <c r="AI90" s="37"/>
+      <c r="AJ90" s="37"/>
+      <c r="AK90" s="37"/>
+      <c r="AL90" s="37"/>
+      <c r="AM90" s="37"/>
+      <c r="AN90" s="37"/>
+      <c r="AO90" s="37"/>
+      <c r="AP90" s="37"/>
+      <c r="AQ90" s="37"/>
+      <c r="AR90" s="37"/>
+      <c r="AS90" s="37"/>
+      <c r="AT90" s="37"/>
+      <c r="AU90" s="37"/>
+      <c r="AV90" s="37"/>
+      <c r="AW90" s="37"/>
+      <c r="AX90" s="37"/>
+      <c r="AY90" s="37"/>
+      <c r="AZ90" s="37"/>
+      <c r="BA90" s="37"/>
+      <c r="BB90" s="37"/>
+      <c r="BC90" s="37"/>
+    </row>
+    <row r="91" spans="1:74" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36"/>
+      <c r="P91" s="36"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="36"/>
+      <c r="W91" s="36"/>
+      <c r="X91" s="36"/>
+      <c r="Y91" s="36"/>
+      <c r="Z91" s="36"/>
+      <c r="AA91" s="36"/>
+      <c r="AB91" s="36"/>
+      <c r="AC91" s="36"/>
+      <c r="AD91" s="36"/>
+      <c r="AE91" s="36"/>
+      <c r="AF91" s="36"/>
+      <c r="AG91" s="36"/>
+      <c r="AH91" s="36"/>
+      <c r="AI91" s="36"/>
+      <c r="AJ91" s="36"/>
+      <c r="AK91" s="36"/>
+      <c r="AL91" s="36"/>
+      <c r="AM91" s="36"/>
+      <c r="AN91" s="36"/>
+      <c r="AO91" s="36"/>
+      <c r="AP91" s="36"/>
+      <c r="AQ91" s="36"/>
+      <c r="AR91" s="36"/>
+      <c r="AS91" s="36"/>
+      <c r="AT91" s="36"/>
+      <c r="AU91" s="36"/>
+      <c r="AV91" s="36"/>
+      <c r="AW91" s="36"/>
+      <c r="AX91" s="36"/>
+      <c r="AY91" s="36"/>
+      <c r="AZ91" s="36"/>
+      <c r="BA91" s="36"/>
+      <c r="BB91" s="36"/>
+      <c r="BC91" s="36"/>
+    </row>
+    <row r="92" spans="1:74" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
+      <c r="V92" s="38"/>
+      <c r="W92" s="38"/>
+      <c r="X92" s="38"/>
+      <c r="Y92" s="38"/>
+      <c r="Z92" s="38"/>
+      <c r="AA92" s="38"/>
+      <c r="AB92" s="38"/>
+      <c r="AC92" s="38"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="38"/>
+      <c r="AH92" s="38"/>
+      <c r="AI92" s="38"/>
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="38"/>
+      <c r="AL92" s="38"/>
+      <c r="AM92" s="38"/>
+      <c r="AN92" s="38"/>
+      <c r="AO92" s="38"/>
+      <c r="AP92" s="38"/>
+      <c r="AQ92" s="38"/>
+      <c r="AR92" s="38"/>
+      <c r="AS92" s="38"/>
+      <c r="AT92" s="38"/>
+      <c r="AU92" s="38"/>
+      <c r="AV92" s="38"/>
+      <c r="AW92" s="38"/>
+      <c r="AX92" s="38"/>
+      <c r="AY92" s="38"/>
+      <c r="AZ92" s="38"/>
+      <c r="BA92" s="38"/>
+      <c r="BB92" s="38"/>
+      <c r="BC92" s="38"/>
+    </row>
+    <row r="93" spans="1:74" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="30"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="25"/>
       <c r="H93" s="42"/>
       <c r="I93" s="42"/>
       <c r="J93" s="42"/>
     </row>
-    <row r="94" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="33"/>
-      <c r="B94" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="8"/>
+    <row r="94" spans="1:74" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="31"/>
+      <c r="B94" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="26"/>
+      <c r="G94" s="16"/>
       <c r="H94" s="42"/>
       <c r="I94" s="42"/>
       <c r="J94" s="42"/>
     </row>
-    <row r="95" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="33"/>
-      <c r="B95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="23">
-        <v>600000</v>
-      </c>
-      <c r="D95" s="8"/>
+    <row r="95" spans="1:74" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="32"/>
+      <c r="B95" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="28"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
       <c r="J95" s="42"/>
     </row>
-    <row r="96" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:74" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C96" s="23"/>
       <c r="D96" s="8"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="28"/>
       <c r="H96" s="42"/>
       <c r="I96" s="42"/>
       <c r="J96" s="42"/>
@@ -3788,51 +3909,75 @@
     <row r="97" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="C97" s="23">
+        <v>600000</v>
+      </c>
       <c r="D97" s="8"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="28"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C98" s="23"/>
       <c r="D98" s="8"/>
       <c r="E98" s="26"/>
       <c r="F98" s="28"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="32"/>
-      <c r="B99" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="24">
-        <f>SUBTOTAL(9,C94:C98)</f>
-        <v>600000</v>
-      </c>
-      <c r="D99" s="15"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="26"/>
       <c r="F99" s="28"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="29"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E101" s="27"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+    </row>
+    <row r="100" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
+      <c r="B100" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="28"/>
+    </row>
+    <row r="101" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="32"/>
+      <c r="B101" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="24">
+        <f>SUBTOTAL(9,C96:C100)</f>
+        <v>600000</v>
+      </c>
+      <c r="D101" s="15"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="28"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="34"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="29"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E103" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E88" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A3:E90" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3841,9 +3986,9 @@
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="A92:D92"/>
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
